--- a/doc/04财务记录/XDM-I研发采购18年7-12月.xlsx
+++ b/doc/04财务记录/XDM-I研发采购18年7-12月.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="51">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,13 +163,56 @@
   </si>
   <si>
     <t>https://item.jd.com/10346387307.html</t>
+  </si>
+  <si>
+    <t>元器件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无线开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.3e3e2e8d71JAXb&amp;id=577001979631&amp;_u=m3s1snic0c5</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z0d.6639537.1997196601.4.21367484dnPXYD&amp;id=539608446419</t>
+  </si>
+  <si>
+    <t>内窥镜2米线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三相接触器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?id=544389914993&amp;spm=a1z09.2.0.0.4cb02e8dqbo6oX&amp;_u=m3s1sni698b</t>
+  </si>
+  <si>
+    <t>脚踏开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射频头转接器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.67002e8dtOFjRU&amp;id=572004839000&amp;_u=m3s1sni182d</t>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?id=544114524636&amp;spm=a1z09.2.0.0.67002e8dtOFjRU&amp;_u=m3s1sni4078</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,6 +237,11 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -222,10 +270,11 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -524,8 +573,8 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -887,93 +936,173 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="3:9">
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="3:9">
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="3:9">
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="3:9">
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="3:9">
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="3:9">
+    <row r="17" spans="2:9">
+      <c r="B17">
+        <v>20181122</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18">
+        <v>20181122</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19">
+        <v>20181122</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20">
+        <v>20181122</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21">
+        <v>20181122</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="3:9">
+    <row r="23" spans="2:9">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="3:9">
+    <row r="24" spans="2:9">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="3:9">
+    <row r="25" spans="2:9">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="3:9">
+    <row r="26" spans="2:9">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="3:9">
+    <row r="27" spans="2:9">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="3:9">
+    <row r="28" spans="2:9">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="3:9">
+    <row r="29" spans="2:9">
       <c r="C29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="3:9">
+    <row r="30" spans="2:9">
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="3:9">
+    <row r="31" spans="2:9">
       <c r="C31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="3:9">
+    <row r="32" spans="2:9">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -1030,7 +1159,7 @@
       </c>
       <c r="H41">
         <f>SUM(H2:H40)</f>
-        <v>2329.2399999999998</v>
+        <v>2560.94</v>
       </c>
     </row>
   </sheetData>

--- a/doc/04财务记录/XDM-I研发采购18年7-12月.xlsx
+++ b/doc/04财务记录/XDM-I研发采购18年7-12月.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="59">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -206,6 +206,35 @@
   </si>
   <si>
     <t>https://detail.tmall.com/item.htm?id=544114524636&amp;spm=a1z09.2.0.0.67002e8dtOFjRU&amp;_u=m3s1sni4078</t>
+  </si>
+  <si>
+    <t>万用表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?_u=e3s1sni84a4&amp;id=540860568502</t>
+  </si>
+  <si>
+    <t>元器件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.2bbe2e8dIkLIdf&amp;id=524965711237&amp;_u=e3s1snib55c</t>
+  </si>
+  <si>
+    <t>无线模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.2bbe2e8dIkLIdf&amp;id=8759062935&amp;_u=e3s1sni2192</t>
   </si>
 </sst>
 </file>
@@ -573,8 +602,8 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I26" sqref="I26"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1052,21 +1081,73 @@
       </c>
     </row>
     <row r="22" spans="2:9">
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="B22">
+        <v>20181213</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>40</v>
+      </c>
     </row>
     <row r="23" spans="2:9">
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="B23">
+        <v>20181213</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>51.8</v>
+      </c>
     </row>
     <row r="24" spans="2:9">
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="B24">
+        <v>20181213</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>43</v>
+      </c>
     </row>
     <row r="25" spans="2:9">
       <c r="C25" s="1"/>
@@ -1159,7 +1240,7 @@
       </c>
       <c r="H41">
         <f>SUM(H2:H40)</f>
-        <v>2560.94</v>
+        <v>2695.7400000000002</v>
       </c>
     </row>
   </sheetData>

--- a/doc/04财务记录/XDM-I研发采购18年7-12月.xlsx
+++ b/doc/04财务记录/XDM-I研发采购18年7-12月.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="61">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -235,6 +235,14 @@
   </si>
   <si>
     <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.2bbe2e8dIkLIdf&amp;id=8759062935&amp;_u=e3s1sni2192</t>
+  </si>
+  <si>
+    <t>4G路由器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?id=5809172234658&amp;spm=a1z09.2.0.0.7b492e8dMji9hW&amp;_u=e3s1sni9540</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -602,8 +610,8 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I27" sqref="I27"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1150,9 +1158,27 @@
       </c>
     </row>
     <row r="25" spans="2:9">
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="B25">
+        <v>20181214</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>153</v>
+      </c>
     </row>
     <row r="26" spans="2:9">
       <c r="C26" s="1"/>
@@ -1240,13 +1266,16 @@
       </c>
       <c r="H41">
         <f>SUM(H2:H40)</f>
-        <v>2695.7400000000002</v>
+        <v>2848.7400000000002</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F25" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/doc/04财务记录/XDM-I研发采购18年7-12月.xlsx
+++ b/doc/04财务记录/XDM-I研发采购18年7-12月.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="70">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -242,6 +242,38 @@
   </si>
   <si>
     <t>https://detail.tmall.com/item.htm?id=5809172234658&amp;spm=a1z09.2.0.0.7b492e8dMji9hW&amp;_u=e3s1sni9540</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>串口服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?id=42112045143&amp;spm=a1z09.2.0.0.276c2e8dmsqdno&amp;_u=i3s1snif31d</t>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?id=45063091507&amp;spm=a1z09.2.0.0.276c2e8dmsqdno&amp;_u=i3s1sni3fb9</t>
+  </si>
+  <si>
+    <t>10米网线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?id=41299074894&amp;spm=a1z09.2.0.0.276c2e8dmsqdno&amp;_u=i3s1sni35e3</t>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?id=574538143589&amp;spm=a1z09.2.0.0.276c2e8dmsqdno&amp;_u=i3s1sniecac</t>
+  </si>
+  <si>
+    <t>ES1642-C载波模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESP8266wifi模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星程酒店房费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -607,11 +639,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1181,68 +1213,146 @@
       </c>
     </row>
     <row r="26" spans="2:9">
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="B26">
+        <v>20181215</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>194</v>
+      </c>
     </row>
     <row r="27" spans="2:9">
+      <c r="B27">
+        <v>20181217</v>
+      </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="E27" s="1"/>
-      <c r="I27" s="1"/>
+      <c r="H27">
+        <v>342</v>
+      </c>
     </row>
     <row r="28" spans="2:9">
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="B28">
+        <v>20181218</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" t="s">
+        <v>63</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <v>41.7</v>
+      </c>
+      <c r="I28" s="1"/>
     </row>
     <row r="29" spans="2:9">
-      <c r="C29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="B29">
+        <v>20181218</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" t="s">
+        <v>65</v>
+      </c>
+      <c r="G29">
+        <v>3</v>
+      </c>
+      <c r="H29">
+        <v>53.43</v>
+      </c>
     </row>
     <row r="30" spans="2:9">
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="B30">
+        <v>20181218</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" t="s">
+        <v>66</v>
+      </c>
+      <c r="G30">
+        <v>3</v>
+      </c>
+      <c r="H30">
+        <v>120</v>
+      </c>
     </row>
     <row r="31" spans="2:9">
       <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="2:9">
       <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:9">
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:9">
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:9">
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:9">
       <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9">
       <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -1254,19 +1364,27 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
+      <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="1" t="s">
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H41">
-        <f>SUM(H2:H40)</f>
-        <v>2848.7400000000002</v>
+      <c r="H42">
+        <f>SUM(H2:H41)</f>
+        <v>3599.87</v>
       </c>
     </row>
   </sheetData>

--- a/doc/04财务记录/XDM-I研发采购18年7-12月.xlsx
+++ b/doc/04财务记录/XDM-I研发采购18年7-12月.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="76">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -274,6 +274,41 @@
   </si>
   <si>
     <t>星程酒店房费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPC装机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.16c12e8dYLt8UY&amp;id=570576644615&amp;_u=p3s1sni2e6b</t>
+  </si>
+  <si>
+    <t>嘉利创充值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元手续费</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -639,11 +674,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1319,18 +1354,58 @@
       </c>
     </row>
     <row r="31" spans="2:9">
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="B31">
+        <v>20181225</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F31" t="s">
+        <v>73</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>40</v>
+      </c>
     </row>
     <row r="32" spans="2:9">
+      <c r="B32">
+        <v>20181225</v>
+      </c>
       <c r="C32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="E32" s="1"/>
+      <c r="H32">
+        <v>290</v>
+      </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="B33">
+        <v>20181225</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="E33" s="1"/>
+      <c r="H33">
+        <v>1006</v>
+      </c>
+      <c r="I33" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="34" spans="1:9">
       <c r="C34" s="1"/>
@@ -1353,38 +1428,16 @@
     </row>
     <row r="37" spans="1:9">
       <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="1" t="s">
+      <c r="A39" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H42">
-        <f>SUM(H2:H41)</f>
-        <v>3599.87</v>
+      <c r="H39">
+        <f>SUM(H2:H38)</f>
+        <v>4935.87</v>
       </c>
     </row>
   </sheetData>

--- a/doc/04财务记录/XDM-I研发采购18年7-12月.xlsx
+++ b/doc/04财务记录/XDM-I研发采购18年7-12月.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="82">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -310,6 +310,28 @@
       <t>元手续费</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多种元器件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.21fe2e8dDRFCEi&amp;id=41281663442&amp;_u=q3s1sni9deb</t>
+  </si>
+  <si>
+    <t>多种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脚踏开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.21fe2e8dDRFCEi&amp;id=2020241651&amp;_u=q3s1sni529e</t>
   </si>
 </sst>
 </file>
@@ -678,7 +700,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1408,16 +1430,50 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
+      <c r="B34">
+        <v>20181226</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H34">
+        <v>60.05</v>
+      </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+      <c r="B35">
+        <v>20181226</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F35" t="s">
+        <v>81</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>16.38</v>
+      </c>
     </row>
     <row r="36" spans="1:9">
       <c r="C36" s="1"/>
@@ -1437,7 +1493,7 @@
       </c>
       <c r="H39">
         <f>SUM(H2:H38)</f>
-        <v>4935.87</v>
+        <v>5012.3</v>
       </c>
     </row>
   </sheetData>
